--- a/wave/doc/FileSize.xlsx
+++ b/wave/doc/FileSize.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terada\Desktop\myStudy\wave\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Hartmann" sheetId="1" r:id="rId1"/>
     <sheet name="LastRemote" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -117,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +184,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,14 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
@@ -483,7 +498,7 @@
     <col min="7" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -512,7 +527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>HEX2DEC(E2)*POWER(16,F2)</f>
+        <f t="shared" ref="G2:G9" si="0">HEX2DEC(E2)*POWER(16,F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="3">
@@ -544,7 +559,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,11 +573,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f>HEX2DEC(E3)*POWER(16,F3)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -576,11 +591,11 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <f>HEX2DEC(E4)*POWER(16,F4)</f>
+        <f t="shared" si="0"/>
         <v>3840</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -594,11 +609,11 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <f>HEX2DEC(E5)*POWER(16,F5)</f>
+        <f t="shared" si="0"/>
         <v>40960</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
@@ -606,11 +621,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <f>HEX2DEC(E6)*POWER(16,F6)</f>
+        <f t="shared" si="0"/>
         <v>983040</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -618,12 +633,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <f>HEX2DEC(E7)*POWER(16,F7)</f>
+        <f t="shared" si="0"/>
         <v>15728640</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E8" s="4">
         <v>2</v>
       </c>
@@ -631,11 +646,11 @@
         <v>6</v>
       </c>
       <c r="G8" s="3">
-        <f>HEX2DEC(E8)*POWER(16,F8)</f>
+        <f t="shared" si="0"/>
         <v>33554432</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E9" s="4">
         <v>0</v>
       </c>
@@ -643,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3">
-        <f>HEX2DEC(E9)*POWER(16,F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -655,20 +670,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -697,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>HEX2DEC(E2)*POWER(16,F2)</f>
+        <f t="shared" ref="G2:G9" si="0">HEX2DEC(E2)*POWER(16,F2)</f>
         <v>12</v>
       </c>
       <c r="H2" s="3">
@@ -729,7 +744,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,11 +758,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f>HEX2DEC(E3)*POWER(16,F3)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -761,11 +776,11 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <f>HEX2DEC(E4)*POWER(16,F4)</f>
+        <f t="shared" si="0"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -779,11 +794,11 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <f>HEX2DEC(E5)*POWER(16,F5)</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E6" s="4">
         <v>3</v>
       </c>
@@ -791,11 +806,11 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <f>HEX2DEC(E6)*POWER(16,F6)</f>
+        <f t="shared" si="0"/>
         <v>196608</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -803,12 +818,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <f>HEX2DEC(E7)*POWER(16,F7)</f>
+        <f t="shared" si="0"/>
         <v>15728640</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E8" s="4">
         <v>3</v>
       </c>
@@ -816,11 +831,11 @@
         <v>6</v>
       </c>
       <c r="G8" s="3">
-        <f>HEX2DEC(E8)*POWER(16,F8)</f>
+        <f t="shared" si="0"/>
         <v>50331648</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E9" s="4">
         <v>0</v>
       </c>
@@ -828,12 +843,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="3">
-        <f>HEX2DEC(E9)*POWER(16,F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>